--- a/datasets/radio_sources_EoR.xlsx
+++ b/datasets/radio_sources_EoR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22DF2C-D231-449D-B40B-B823BEB82F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C473C01-CE9D-43DB-BFCD-023D822BD731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>&lt;6.3</t>
+  </si>
+  <si>
+    <t>J2020-6215</t>
+  </si>
+  <si>
+    <t>J0209-5626</t>
+  </si>
+  <si>
+    <t>Wolf+24</t>
   </si>
 </sst>
 </file>
@@ -260,12 +269,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,10 +759,10 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -772,10 +780,9 @@
       <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -790,8 +797,6 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -809,8 +814,6 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -826,10 +829,9 @@
       <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -847,10 +849,9 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -862,8 +863,6 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -881,8 +880,6 @@
       <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -900,10 +897,10 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -920,10 +917,9 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -941,8 +937,6 @@
       <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -957,10 +951,9 @@
       <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -975,10 +968,9 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -993,8 +985,6 @@
       <c r="E20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1012,10 +1002,9 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1033,10 +1022,10 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1053,10 +1042,9 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1068,8 +1056,6 @@
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1087,10 +1073,10 @@
       <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1110,10 +1096,10 @@
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1133,56 +1119,50 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>5.69</v>
-      </c>
-      <c r="C28">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D28">
-        <v>-0.04</v>
+        <v>63</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.718</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>5.68</v>
+        <v>5.69</v>
+      </c>
+      <c r="C29">
+        <v>0.48499999999999999</v>
       </c>
       <c r="D29">
-        <v>-0.75</v>
+        <v>-0.04</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="D30">
         <v>-0.75</v>
@@ -1190,35 +1170,58 @@
       <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>5.63</v>
+      </c>
+      <c r="D31">
+        <v>-0.75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>5.62</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>1.22</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>-0.23</v>
       </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition descending="1" ref="B2:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+    <sortCondition descending="1" ref="B1:B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/datasets/radio_sources_EoR.xlsx
+++ b/datasets/radio_sources_EoR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C473C01-CE9D-43DB-BFCD-023D822BD731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81A599-E150-4436-9BE3-01CAFFF3ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Wolf+24</t>
+  </si>
+  <si>
+    <t>PS J1011-01</t>
+  </si>
+  <si>
+    <t>PS J0202-17</t>
+  </si>
+  <si>
+    <t>Ighina+24</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,15 +1217,58 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1">
         <v>5.6059999999999999</v>
       </c>
+      <c r="C33">
+        <v>29.5</v>
+      </c>
+      <c r="D33">
+        <v>-0.27</v>
+      </c>
       <c r="E33" t="s">
         <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="C34">
+        <v>7.46</v>
+      </c>
+      <c r="D34">
+        <v>-0.4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="C35">
+        <v>43.16</v>
+      </c>
+      <c r="D35">
+        <v>-0.65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/radio_sources_EoR.xlsx
+++ b/datasets/radio_sources_EoR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E81A599-E150-4436-9BE3-01CAFFF3ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A253C-9616-4703-A60F-4F4C8E5C17A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Banados+2021</t>
   </si>
   <si>
-    <t>P050-18</t>
-  </si>
-  <si>
     <t>Banados+2023</t>
   </si>
   <si>
@@ -197,15 +194,6 @@
     <t>Zeimann+2011</t>
   </si>
   <si>
-    <t>reference_discovery</t>
-  </si>
-  <si>
-    <t>reference_z</t>
-  </si>
-  <si>
-    <t>reference_radiospectrum</t>
-  </si>
-  <si>
     <t>Fan+2004</t>
   </si>
   <si>
@@ -243,6 +231,15 @@
   </si>
   <si>
     <t>Ighina+24</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Banados+24</t>
+  </si>
+  <si>
+    <t>J0410-0139</t>
   </si>
 </sst>
 </file>
@@ -619,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,253 +643,262 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6.8529999999999998</v>
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>6.9964000000000004</v>
       </c>
       <c r="C2">
-        <v>0.47499999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
-        <v>-0.86</v>
+        <v>-0.21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>6.8529999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.47499999999999998</v>
       </c>
       <c r="D3">
-        <v>-1.31</v>
+        <v>-0.86</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>6.6</v>
-      </c>
-      <c r="C4">
-        <v>1.38</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>-1.22</v>
+        <v>-1.31</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>6.6</v>
+      </c>
+      <c r="C5">
+        <v>1.38</v>
       </c>
       <c r="D5">
-        <v>-0.98</v>
+        <v>-1.22</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>6.38</v>
-      </c>
-      <c r="C6">
-        <v>1.27</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>-1.1200000000000001</v>
+        <v>-0.98</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>6.2329999999999997</v>
+        <v>6.38</v>
       </c>
       <c r="C7">
-        <v>4.6580000000000004</v>
+        <v>1.27</v>
       </c>
       <c r="D7">
-        <v>-0.16</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.21</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>6.2329999999999997</v>
+      </c>
+      <c r="C8">
+        <v>4.6580000000000004</v>
+      </c>
       <c r="D8">
-        <v>-0.67</v>
+        <v>-0.16</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
-        <v>6.2</v>
-      </c>
+        <v>6.21</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9">
-        <v>-0.75</v>
+        <v>-0.67</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
-        <v>6.13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>6.2</v>
       </c>
       <c r="D10">
-        <v>-1.04</v>
+        <v>-0.75</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
-        <v>6.12</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>6.13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D11">
-        <v>-0.94</v>
+        <v>-1.04</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>64.2</v>
-      </c>
+        <v>6.12</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12">
-        <v>-0.44</v>
+        <v>-0.94</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>6.09</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="D13">
+        <v>-0.44</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
         <v>6.09</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>-0.61</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>6.07</v>
@@ -904,18 +910,18 @@
         <v>0.06</v>
       </c>
       <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>6.06</v>
@@ -924,15 +930,15 @@
         <v>0.6</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>5.99</v>
@@ -944,12 +950,12 @@
         <v>0.26</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>5.95</v>
@@ -958,10 +964,10 @@
         <v>-0.39</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -983,7 +989,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>5.88</v>
@@ -992,7 +998,7 @@
         <v>-1.07</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1017,7 +1023,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>5.83</v>
@@ -1029,18 +1035,18 @@
         <v>-0.51</v>
       </c>
       <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
         <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>5.82</v>
@@ -1049,26 +1055,26 @@
         <v>-1.22</v>
       </c>
       <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
         <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>5.8</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>5.8</v>
@@ -1080,18 +1086,18 @@
         <v>-1.6</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>5.78</v>
@@ -1103,18 +1109,18 @@
         <v>-0.79</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>5.74</v>
@@ -1126,29 +1132,29 @@
         <v>-0.38</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
         <v>5.718</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>5.69</v>
@@ -1160,10 +1166,10 @@
         <v>-0.04</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1196,7 +1202,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>5.62</v>
@@ -1208,18 +1214,18 @@
         <v>-0.23</v>
       </c>
       <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1">
         <v>5.6059999999999999</v>
@@ -1231,15 +1237,15 @@
         <v>-0.27</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1">
         <v>5.58</v>
@@ -1251,12 +1257,12 @@
         <v>-0.4</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1">
         <v>5.57</v>
@@ -1268,11 +1274,11 @@
         <v>-0.65</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G33">
     <sortCondition descending="1" ref="B1:B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/datasets/radio_sources_EoR.xlsx
+++ b/datasets/radio_sources_EoR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A253C-9616-4703-A60F-4F4C8E5C17A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05B18E-5640-43E8-AD64-814ADA3DE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="18564" windowHeight="11700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +663,7 @@
         <v>3.5</v>
       </c>
       <c r="D2">
-        <v>-0.21</v>
+        <v>0.21</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>

--- a/datasets/radio_sources_EoR.xlsx
+++ b/datasets/radio_sources_EoR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05B18E-5640-43E8-AD64-814ADA3DE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B4FE1-1C49-4B44-A676-D8127598B5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="18564" windowHeight="11700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>J0410-0139</t>
+  </si>
+  <si>
+    <t>J0856+0224</t>
+  </si>
+  <si>
+    <t>Drouart+20</t>
   </si>
 </sst>
 </file>
@@ -614,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1277,6 +1283,23 @@
         <v>64</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C36">
+        <v>899.82</v>
+      </c>
+      <c r="D36">
+        <v>-1.18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G33">
     <sortCondition descending="1" ref="B1:B33"/>

--- a/datasets/radio_sources_EoR.xlsx
+++ b/datasets/radio_sources_EoR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B4FE1-1C49-4B44-A676-D8127598B5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E41441-FF7E-4A77-ABA2-2BF425038924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Drouart+20</t>
+  </si>
+  <si>
+    <t>J1530+1049</t>
+  </si>
+  <si>
+    <t>Saxena+18</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,55 +1155,58 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5.718</v>
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>5.72</v>
+      </c>
+      <c r="C28">
+        <v>174.88</v>
+      </c>
+      <c r="D28">
+        <v>-1.4</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>5.69</v>
-      </c>
-      <c r="C29">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D29">
-        <v>-0.04</v>
+        <v>59</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.718</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>5.68</v>
+        <v>5.69</v>
+      </c>
+      <c r="C30">
+        <v>0.48499999999999999</v>
       </c>
       <c r="D30">
-        <v>-0.75</v>
+        <v>-0.04</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="D31">
         <v>-0.75</v>
@@ -1208,101 +1217,115 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>5.63</v>
+      </c>
+      <c r="D32">
+        <v>-0.75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>5.62</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>1.22</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>-0.23</v>
       </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>5.6059999999999999</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>29.5</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>-0.27</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>5.58</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>7.46</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>-0.4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1">
-        <v>5.57</v>
-      </c>
-      <c r="C35">
-        <v>43.16</v>
-      </c>
-      <c r="D35">
-        <v>-0.65</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="C36">
+        <v>43.16</v>
+      </c>
+      <c r="D36">
+        <v>-0.65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>5.55</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>899.82</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>-1.18</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G33">
-    <sortCondition descending="1" ref="B1:B33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G34">
+    <sortCondition descending="1" ref="B1:B34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
